--- a/data_import.xlsx
+++ b/data_import.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>user_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>surname</t>
   </si>
@@ -41,12 +38,6 @@
     <t>hire_date</t>
   </si>
   <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>Пантилеев</t>
   </si>
   <si>
@@ -56,12 +47,6 @@
     <t>Владимирович</t>
   </si>
   <si>
-    <t>panandreas</t>
-  </si>
-  <si>
-    <t>k5jnrh45a6</t>
-  </si>
-  <si>
     <t>Такунцев</t>
   </si>
   <si>
@@ -71,24 +56,42 @@
     <t>Аркадьевич</t>
   </si>
   <si>
-    <t>TakuncDen</t>
-  </si>
-  <si>
-    <t>t87t8g8</t>
-  </si>
-  <si>
-    <t>facility_name</t>
-  </si>
-  <si>
     <t>post_name</t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
+    <t>сегодня</t>
+  </si>
+  <si>
+    <t>Специалист 1 категории</t>
+  </si>
+  <si>
+    <t>Старший специалист</t>
+  </si>
+  <si>
+    <t>Установка 1</t>
+  </si>
+  <si>
+    <t>Установка 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -117,9 +120,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -400,107 +406,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
     <col min="6" max="6" width="17.21875" customWidth="1"/>
     <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="1">
+        <v>45730</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>45730</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1">
-        <v>45394</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>